--- a/BalanceSheet/ZEN_bal.xlsx
+++ b/BalanceSheet/ZEN_bal.xlsx
@@ -1550,19 +1550,19 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
-        <v>5404000.0</v>
+        <v>15000000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>-3193000.0</v>
+        <v>10000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-12692000.0</v>
+        <v>14000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>-10323000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-463000.0</v>
+        <v>38000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>43206000.0</v>
